--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.39232244095366</v>
+        <v>2.423734333333333</v>
       </c>
       <c r="N2">
-        <v>2.39232244095366</v>
+        <v>7.271203</v>
       </c>
       <c r="O2">
-        <v>0.8727735797685843</v>
+        <v>0.8328699661798485</v>
       </c>
       <c r="P2">
-        <v>0.8727735797685843</v>
+        <v>0.8328699661798487</v>
       </c>
       <c r="Q2">
-        <v>338.9596107685858</v>
+        <v>363.6460245232529</v>
       </c>
       <c r="R2">
-        <v>338.9596107685858</v>
+        <v>3272.814220709276</v>
       </c>
       <c r="S2">
-        <v>0.3683524896921676</v>
+        <v>0.3458498668612539</v>
       </c>
       <c r="T2">
-        <v>0.3683524896921676</v>
+        <v>0.3458498668612539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.348734915053821</v>
+        <v>0.486365</v>
       </c>
       <c r="N3">
-        <v>0.348734915053821</v>
+        <v>1.459095</v>
       </c>
       <c r="O3">
-        <v>0.1272264202314157</v>
+        <v>0.1671300338201514</v>
       </c>
       <c r="P3">
-        <v>0.1272264202314157</v>
+        <v>0.1671300338201514</v>
       </c>
       <c r="Q3">
-        <v>49.41100290015159</v>
+        <v>72.97198223619333</v>
       </c>
       <c r="R3">
-        <v>49.41100290015159</v>
+        <v>656.74784012574</v>
       </c>
       <c r="S3">
-        <v>0.05369567747374979</v>
+        <v>0.06940086963435364</v>
       </c>
       <c r="T3">
-        <v>0.05369567747374979</v>
+        <v>0.06940086963435366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H4">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I4">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J4">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.39232244095366</v>
+        <v>2.423734333333333</v>
       </c>
       <c r="N4">
-        <v>2.39232244095366</v>
+        <v>7.271203</v>
       </c>
       <c r="O4">
-        <v>0.8727735797685843</v>
+        <v>0.8328699661798485</v>
       </c>
       <c r="P4">
-        <v>0.8727735797685843</v>
+        <v>0.8328699661798487</v>
       </c>
       <c r="Q4">
-        <v>162.4905769232838</v>
+        <v>165.740390149443</v>
       </c>
       <c r="R4">
-        <v>162.4905769232838</v>
+        <v>1491.663511344987</v>
       </c>
       <c r="S4">
-        <v>0.1765809455158703</v>
+        <v>0.1576293648249461</v>
       </c>
       <c r="T4">
-        <v>0.1765809455158703</v>
+        <v>0.1576293648249461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H5">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J5">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348734915053821</v>
+        <v>0.486365</v>
       </c>
       <c r="N5">
-        <v>0.348734915053821</v>
+        <v>1.459095</v>
       </c>
       <c r="O5">
-        <v>0.1272264202314157</v>
+        <v>0.1671300338201514</v>
       </c>
       <c r="P5">
-        <v>0.1272264202314157</v>
+        <v>0.1671300338201514</v>
       </c>
       <c r="Q5">
-        <v>23.68666387537573</v>
+        <v>33.258729616695</v>
       </c>
       <c r="R5">
-        <v>23.68666387537573</v>
+        <v>299.328566550255</v>
       </c>
       <c r="S5">
-        <v>0.02574065267307889</v>
+        <v>0.03163110946967851</v>
       </c>
       <c r="T5">
-        <v>0.02574065267307889</v>
+        <v>0.0316311094696785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H6">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I6">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J6">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39232244095366</v>
+        <v>2.423734333333333</v>
       </c>
       <c r="N6">
-        <v>2.39232244095366</v>
+        <v>7.271203</v>
       </c>
       <c r="O6">
-        <v>0.8727735797685843</v>
+        <v>0.8328699661798485</v>
       </c>
       <c r="P6">
-        <v>0.8727735797685843</v>
+        <v>0.8328699661798487</v>
       </c>
       <c r="Q6">
-        <v>218.283610860575</v>
+        <v>253.855256685245</v>
       </c>
       <c r="R6">
-        <v>218.283610860575</v>
+        <v>2284.697310167205</v>
       </c>
       <c r="S6">
-        <v>0.2372120717780247</v>
+        <v>0.2414320542668476</v>
       </c>
       <c r="T6">
-        <v>0.2372120717780247</v>
+        <v>0.2414320542668476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H7">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I7">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J7">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.348734915053821</v>
+        <v>0.486365</v>
       </c>
       <c r="N7">
-        <v>0.348734915053821</v>
+        <v>1.459095</v>
       </c>
       <c r="O7">
-        <v>0.1272264202314157</v>
+        <v>0.1671300338201514</v>
       </c>
       <c r="P7">
-        <v>0.1272264202314157</v>
+        <v>0.1671300338201514</v>
       </c>
       <c r="Q7">
-        <v>31.81975606129361</v>
+        <v>50.94053016442499</v>
       </c>
       <c r="R7">
-        <v>31.81975606129361</v>
+        <v>458.4647714798249</v>
       </c>
       <c r="S7">
-        <v>0.03457900585853875</v>
+        <v>0.04844759570328129</v>
       </c>
       <c r="T7">
-        <v>0.03457900585853875</v>
+        <v>0.04844759570328129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H8">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I8">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J8">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.39232244095366</v>
+        <v>2.423734333333333</v>
       </c>
       <c r="N8">
-        <v>2.39232244095366</v>
+        <v>7.271203</v>
       </c>
       <c r="O8">
-        <v>0.8727735797685843</v>
+        <v>0.8328699661798485</v>
       </c>
       <c r="P8">
-        <v>0.8727735797685843</v>
+        <v>0.8328699661798487</v>
       </c>
       <c r="Q8">
-        <v>83.39635847376158</v>
+        <v>92.48470926727335</v>
       </c>
       <c r="R8">
-        <v>83.39635847376158</v>
+        <v>832.36238340546</v>
       </c>
       <c r="S8">
-        <v>0.09062807278252158</v>
+        <v>0.08795868022680106</v>
       </c>
       <c r="T8">
-        <v>0.09062807278252158</v>
+        <v>0.08795868022680105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H9">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I9">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J9">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.348734915053821</v>
+        <v>0.486365</v>
       </c>
       <c r="N9">
-        <v>0.348734915053821</v>
+        <v>1.459095</v>
       </c>
       <c r="O9">
-        <v>0.1272264202314157</v>
+        <v>0.1671300338201514</v>
       </c>
       <c r="P9">
-        <v>0.1272264202314157</v>
+        <v>0.1671300338201514</v>
       </c>
       <c r="Q9">
-        <v>12.15689887377878</v>
+        <v>18.5586864881</v>
       </c>
       <c r="R9">
-        <v>12.15689887377878</v>
+        <v>167.0281783929</v>
       </c>
       <c r="S9">
-        <v>0.01321108422604826</v>
+        <v>0.01765045901283794</v>
       </c>
       <c r="T9">
-        <v>0.01321108422604826</v>
+        <v>0.01765045901283794</v>
       </c>
     </row>
   </sheetData>
